--- a/LastWitch.Unity/Excels/IngredientInfos.xlsx
+++ b/LastWitch.Unity/Excels/IngredientInfos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\颜立林\Documents\留学\program2\工程文件\LastWitch\LastWitch.Unity\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97850B5C-FA30-489D-B9EE-8F1A65FD4B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B6632E-B29E-4DBA-AA46-13B9F88AFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22403" yWindow="-98" windowWidth="24195" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,19 +55,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Meat from creatures that are difficult to capture at ordinary times. It's lukcy to get protein.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Storage resistant natural starch block,because it is deeply buried underground, it takes a lot of physical strength to get it.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Meat from creatures that are difficult to capture at ordinary times. It's lukcy to get protein!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -118,6 +126,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +438,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -483,8 +494,8 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -501,13 +512,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
